--- a/Andrew-annotations/BIO_Q4_2016.xlsx
+++ b/Andrew-annotations/BIO_Q4_2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7291E97-05C1-49A4-AB3E-47BCF6F0312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE07DBBB-E352-4345-B173-2208E7C5FE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -681,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -713,7 +713,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -745,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -777,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -864,13 +864,13 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -896,13 +896,13 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -934,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>2</v>
